--- a/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -471,7 +471,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -832,7 +832,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Appointment.serviceType` 0..* `CodeableConcept`
 *  R4: `Appointment.serviceType` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `Appointment.serviceType` is mapped to FHIR R4 element `Appointment.serviceType`.</t>
+Element `Appointment.serviceType` has is mapped to FHIR R4 element `Appointment.serviceType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -433,8 +433,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -471,8 +471,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -832,7 +832,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -433,8 +433,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -456,7 +455,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-service-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:reference</t>
@@ -471,8 +470,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -487,7 +485,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
 </t>
   </si>
   <si>
@@ -832,7 +830,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -843,7 +841,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.1015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.serviceType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Appointment.serviceType` 0..* `CodeableConcept`
 *  R4: `Appointment.serviceType` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `Appointment.serviceType` has is mapped to FHIR R4 element `Appointment.serviceType`, but has no comparisons.</t>
+Element `Appointment.serviceType` is mapped to FHIR R4 element `Appointment.serviceType` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -433,7 +433,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -455,7 +455,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-service-type-for-R4</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:reference</t>
@@ -470,7 +470,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -485,7 +485,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -830,7 +830,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -841,7 +841,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.1015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="38.85546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
